--- a/GradStats_R/Week_6/Homework/HMK_Data.xlsx
+++ b/GradStats_R/Week_6/Homework/HMK_Data.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tehrandavis/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="23955" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="440" windowWidth="23960" windowHeight="12580" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Set 1" sheetId="5" r:id="rId1"/>
-    <sheet name="Data Set 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Majors" sheetId="5" r:id="rId1"/>
+    <sheet name="DoP" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -146,12 +159,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -181,12 +194,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -392,17 +405,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -410,7 +423,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -419,7 +432,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>17</v>
       </c>
@@ -428,7 +441,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>24</v>
       </c>
@@ -437,7 +450,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>18</v>
       </c>
@@ -446,7 +459,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>16</v>
       </c>
@@ -455,7 +468,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>18</v>
       </c>
@@ -464,7 +477,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>13</v>
       </c>
@@ -473,7 +486,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>15</v>
       </c>
@@ -482,7 +495,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>18</v>
       </c>
@@ -491,7 +504,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -500,7 +513,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -509,7 +522,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>15</v>
       </c>
@@ -518,7 +531,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>19</v>
       </c>
@@ -527,7 +540,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -536,7 +549,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -545,7 +558,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -554,7 +567,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -563,7 +576,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -572,7 +585,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -581,7 +594,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>13</v>
       </c>
@@ -590,7 +603,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -599,7 +612,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -608,7 +621,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -617,7 +630,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>14</v>
       </c>
@@ -626,7 +639,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>15</v>
       </c>
@@ -635,7 +648,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>21</v>
       </c>
@@ -644,37 +657,37 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -690,24 +703,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -715,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>15</v>
       </c>
@@ -723,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>12</v>
       </c>
@@ -731,7 +744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>14</v>
       </c>
@@ -739,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>16</v>
       </c>
@@ -747,7 +760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>19</v>
       </c>
@@ -755,7 +768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>18</v>
       </c>
@@ -763,7 +776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>13</v>
       </c>
@@ -771,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>21</v>
       </c>
@@ -779,7 +792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>20</v>
       </c>
@@ -787,7 +800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>19</v>
       </c>
@@ -795,7 +808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -803,7 +816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>15</v>
       </c>
@@ -811,7 +824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>16</v>
       </c>
@@ -819,7 +832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>24</v>
       </c>
@@ -827,7 +840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>18</v>
       </c>
@@ -835,7 +848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -843,7 +856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -851,7 +864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>13</v>
       </c>
@@ -859,7 +872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>15</v>
       </c>
@@ -867,7 +880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -875,7 +888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>16</v>
       </c>
@@ -883,7 +896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>12</v>
       </c>
@@ -891,7 +904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>15</v>
       </c>
@@ -899,7 +912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -907,7 +920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>21</v>
       </c>
